--- a/PublicTools/econfigs/11_battleLevel.xlsx
+++ b/PublicTools/econfigs/11_battleLevel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/ws.localized/arpgfun/PublicTools/econfigs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53897138-7617-C341-A0B9-74699BC7D715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F81BC33-FB58-B541-91D9-93A33457E36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,9 +393,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>PushLevel</t>
-  </si>
-  <si>
     <t>Level</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -409,6 +406,10 @@
   </si>
   <si>
     <t>地图类型</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SiegeLevel</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -28710,7 +28711,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -28758,7 +28759,7 @@
         <v>25</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>48</v>
@@ -28767,7 +28768,7 @@
         <v>49</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>31</v>
@@ -28833,7 +28834,7 @@
         <v>7</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>7</v>
@@ -28890,7 +28891,7 @@
         <v>26</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>34</v>
@@ -28899,7 +28900,7 @@
         <v>35</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>37</v>
@@ -28953,7 +28954,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
@@ -29019,7 +29020,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G5" s="3">
         <v>2</v>

--- a/PublicTools/econfigs/11_battleLevel.xlsx
+++ b/PublicTools/econfigs/11_battleLevel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/ws.localized/arpgfun/PublicTools/econfigs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F81BC33-FB58-B541-91D9-93A33457E36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC32E39-5734-6840-93C9-049E9EA6C349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
   <si>
     <t>BattleLevelData</t>
   </si>
@@ -220,10 +220,6 @@
   </si>
   <si>
     <t>地图元素配置文件</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level/level1.json</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -412,6 +408,14 @@
     <t>SiegeLevel</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>Level/level_boss.json</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髅王所在地</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -528,14 +532,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -28708,10 +28711,10 @@
   <dimension ref="A1:V1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="R21" sqref="R20:R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -28719,7 +28722,7 @@
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
     <col min="5" max="5" width="33.1640625" customWidth="1"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" customWidth="1"/>
@@ -28756,51 +28759,51 @@
         <v>10</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="10" t="s">
-        <v>54</v>
+      <c r="S1" s="6" t="s">
+        <v>28</v>
       </c>
-      <c r="S1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="8" t="s">
         <v>11</v>
       </c>
       <c r="V1" s="3"/>
@@ -28834,7 +28837,7 @@
         <v>7</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>7</v>
@@ -28860,13 +28863,13 @@
       <c r="R2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="V2" s="3"/>
@@ -28888,51 +28891,51 @@
         <v>15</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" s="12" t="s">
+      <c r="M3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="12" t="s">
+      <c r="N3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="O3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="P3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="Q3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="R3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="10" t="s">
-        <v>43</v>
+      <c r="S3" s="6" t="s">
+        <v>29</v>
       </c>
-      <c r="S3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="U3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="V3" s="3"/>
@@ -28954,7 +28957,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
@@ -28987,19 +28990,19 @@
         <v>0</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S4" s="3">
         <v>1200</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V4" s="3"/>
     </row>
@@ -29020,7 +29023,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5" s="3">
         <v>2</v>
@@ -29053,16 +29056,16 @@
         <v>0</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S5" s="3">
         <v>300</v>
       </c>
-      <c r="T5" s="6" t="s">
-        <v>24</v>
+      <c r="T5" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="U5" s="5" t="s">
         <v>21</v>
@@ -29070,27 +29073,69 @@
       <c r="V5" s="3"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2</v>
+      </c>
+      <c r="J6" s="3">
+        <v>7</v>
+      </c>
+      <c r="K6" s="3">
+        <v>450</v>
+      </c>
+      <c r="L6" s="3">
+        <v>7</v>
+      </c>
+      <c r="M6" s="3">
+        <v>23040</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O6" s="3">
+        <v>3500</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" s="3">
+        <v>300</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="V6" s="3"/>
     </row>
     <row r="7" spans="1:22" ht="15.75" customHeight="1">
